--- a/similarities/split_global/harmonic_similarity_timestamps_50.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,46 +484,56 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:16.520000', '0:00:25.400000')]</t>
+          <t>('0:00:19.980000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=16.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -531,671 +541,673 @@
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
+          <t>('0:00:52.740000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=17.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>jaah_24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C:7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000')]</t>
+          <t>('0:01:18.690000', '0:01:23.150000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:38.560000', '0:00:45.420000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=78.69</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-24#t=38.56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:04:42.120000', '0:04:50.060000')]</t>
+          <t>('0:00:40.640000', '0:00:44.840000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.920000', '0:00:21.940000')]</t>
+          <t>('0:00:38.580000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=282.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:45.400000', '0:02:03.260000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.940000', '0:00:17.780000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=105.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=10.94']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj'], ['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000'), ('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:01:48.500000', '0:02:05.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000'), ('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:01:07.160000', '0:01:12.400000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=108.5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+          <t>('0:01:48.980000', '0:02:02.260000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:38.580000', '0:00:43.300000')]</t>
+          <t>('0:00:21.820000', '0:00:28.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=108.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=21.82</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_63</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'G:dim7', 'F:min', 'G:dim7']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:19.460000', '0:01:29.810000')]</t>
+          <t>('0:00:25.480000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:19.360000', '0:00:26.580000')]</t>
+          <t>('0:01:39.600000', '0:01:51.620000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=79.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=19.36']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:40.880000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'Bb/3']]</t>
+          <t>['A:min7', 'D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'A:min/C', 'G:maj/B']]</t>
+          <t>['E:min7', 'A:7', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:48.913000', '0:01:54.379000')]</t>
+          <t>('0:00:11.840000', '0:00:16.560000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:27.820000', '0:00:30.820000')]</t>
+          <t>('0:00:18.600000', '0:00:22.920000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=108.913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=11.84</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=27.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=18.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E']]</t>
+          <t>['C/3', 'F', 'C/3', 'F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:02.537346', '0:00:08.504874')]</t>
+          <t>('0:01:16.585782', '0:01:18.536258')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:45.887000', '0:00:51.649000')]</t>
+          <t>('0:02:08.540000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=2.537346']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:20.440000'), ('0:01:07.560000', '0:01:14.100000')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000'), ('0:00:40.640000', '0:00:48.100000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56', 'https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#:min', 'D#:7/A#', 'G#']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000'), ('0:00:34.240000', '0:00:40.760000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000'), ('0:00:40.400000', '0:00:43.340000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=34.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=40.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['F#/4', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:25.640000', '0:00:56.260000')]</t>
+          <t>('0:00:05.776000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:58.080000')]</t>
+          <t>('0:02:07.431000', '0:02:12.656000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=25.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_60</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'A:min7']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Ab:maj6', 'Bb:7', 'Bb:min7']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:18.620000', '0:00:21.720000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:34.370000', '0:00:37.130000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-60#t=18.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=34.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
